--- a/data/trans_camb/P25A_2_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_2_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,78</t>
+          <t>-6,5; 4,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,22</t>
+          <t>-8,97; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 11,59</t>
+          <t>-7,6; 3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 12,87</t>
+          <t>-6,93; 3,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,3</t>
+          <t>-7,47; 2,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,13</t>
+          <t>-5,21; 8,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 2,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 0,59</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 4,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-40,42%</t>
+          <t>-57,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>123,77%</t>
+          <t>-23,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>-26,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-41,72%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-40,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,5; 198,73</t>
+          <t>-66,37; 148,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,99; 73,73</t>
+          <t>-88,09; 27,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 515,75</t>
+          <t>-76,05; 127,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 77,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,75; 14,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 232,85</t>
+          <t>-66,81; 141,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 57,21</t>
+          <t>-71,49; 78,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 6,17</t>
+          <t>-55,07; 252,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 237,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,95; 59,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-71,8; 15,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-47,67; 116,77</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,5</t>
+          <t>-2,53; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,24</t>
+          <t>-2,99; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,13</t>
+          <t>-1,61; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 20,18</t>
+          <t>-0,52; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,76</t>
+          <t>0,44; 6,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,42</t>
+          <t>0,92; 4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 2,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 3,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>-33,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-52,03%</t>
+          <t>-59,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>963,52%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>222,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1666,21%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>463,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>567,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1228,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>152,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,84; 91,05</t>
+          <t>-83,55; 158,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,27; 44,98</t>
+          <t>-91,39; 48,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>339,28; 2864,69</t>
+          <t>-60,8; 360,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 776,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 1351,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>336,51; 8168,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 123,48</t>
+          <t>-16,78; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 214,4</t>
+          <t>8,16; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>563,14; 2538,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-65,6; 165,83</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-45,58; 377,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 599,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,69</t>
+          <t>-2,51; 0,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,52</t>
+          <t>-1,81; 0,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,38</t>
+          <t>-1,68; 0,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 31,88</t>
+          <t>-0,34; 1,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,07</t>
+          <t>-0,32; 1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,61</t>
+          <t>-1,19; 0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 13,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 0,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 0,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 0,6</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,0%</t>
+          <t>-77,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-66,52%</t>
+          <t>-26,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>245,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>275,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5634,42%</t>
+          <t>216,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>154,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,9%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>372,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-16,69%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1606,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1253,24 +1631,54 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 291,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,19; 216,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2124,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-83,18; 414,14</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-72,11; 434,74</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-88,46; 385,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,99</t>
+          <t>-3,13; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; -0,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,97</t>
+          <t>-0,24; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 16,04</t>
+          <t>-0,57; 4,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,33</t>
+          <t>-1,0; 5,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 12,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 2,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 4,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>389,59%</t>
+          <t>152,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>521,69%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,66%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>454,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>101,72%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 76,61</t>
+          <t>-100,0; 415,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,0; -7,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>131,97; 851,49</t>
+          <t>-46,76; 672,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 109,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 94,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>233,48; 1043,98</t>
+          <t>-19,62; 310,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 51,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 24,56</t>
+          <t>-32,73; 332,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>251,72; 743,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,3; 193,92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,47; 292,38</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 0,79</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 0,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 2,53</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 1,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 2,15</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,09</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 0,91</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,72</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,53</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-46,42%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>49,38%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>84,29%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-10,57%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>66,42%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-59,48; 61,63</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-75,97; 9,68</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-17,68; 173,78</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-29,37; 126,12</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,32; 157,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 223,78</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-36,17; 55,58</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-45,01; 47,73</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 157,9</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
